--- a/data/trans_camb/P38C-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P38C-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
         <v>-11.73129536100974</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-6.103164001475481</v>
+        <v>-6.103164001475491</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>-9.380729217019802</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-20.8681875589325</v>
+        <v>-20.82986528389289</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-14.24087734152477</v>
+        <v>-15.0594788400717</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-15.34578159668033</v>
+        <v>-15.8466039983763</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-2.781803444675883</v>
+        <v>-2.754310537069763</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.409598307133797</v>
+        <v>1.963606398868198</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-2.786106845466319</v>
+        <v>-3.107934935849562</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>-0.2081585208108422</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.09322620654120989</v>
+        <v>-0.09322620654121005</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.1541530422627065</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3545188674838369</v>
+        <v>-0.3564333306823842</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2105826005515487</v>
+        <v>-0.2215437262483251</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2473347408845128</v>
+        <v>-0.2526855725854775</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.05362915711382919</v>
+        <v>-0.05217307509681136</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.03662279535830865</v>
+        <v>0.03053111153367557</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.04736866141248677</v>
+        <v>-0.05143489292413346</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>-4.236674792855</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-6.95288386072288</v>
+        <v>-6.952883860722869</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-5.300178821204504</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-11.25518849745451</v>
+        <v>-11.37374047113823</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.79948997066459</v>
+        <v>-11.71689652874019</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.588640541097385</v>
+        <v>-9.580087209908754</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.31373508252485</v>
+        <v>2.42201801556862</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.129976928705639</v>
+        <v>-1.957323478750701</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.020044899816885</v>
+        <v>-0.9058593388998122</v>
       </c>
     </row>
     <row r="13">
@@ -724,7 +724,7 @@
         <v>-0.06193595386883712</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.08448090320624758</v>
+        <v>-0.08448090320624745</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.07048449230205284</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1625247765719093</v>
+        <v>-0.1618937394765773</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1415067902514001</v>
+        <v>-0.1413401606147809</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1252518896769025</v>
+        <v>-0.1240226165385043</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.03446680801241502</v>
+        <v>0.03676849246114576</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.02598613768984965</v>
+        <v>-0.02632242044312672</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.01366475385426395</v>
+        <v>-0.01152339102727913</v>
       </c>
     </row>
     <row r="16">
@@ -779,10 +779,10 @@
         <v>-6.04605353099611</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-1.141082100442448</v>
+        <v>-1.141082100442437</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-3.574516051119303</v>
+        <v>-3.574516051119292</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-10.88613406901538</v>
+        <v>-11.13151594230688</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.038924727887911</v>
+        <v>-4.762539431842941</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.473681571814644</v>
+        <v>-6.466001342452659</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.701676211433032</v>
+        <v>-1.052798218953857</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.750515025530951</v>
+        <v>2.914408807880462</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.3637345705930277</v>
+        <v>-0.310895467344491</v>
       </c>
     </row>
     <row r="19">
@@ -830,10 +830,10 @@
         <v>-0.07455816076064793</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.01336711599272695</v>
+        <v>-0.01336711599272682</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.04295452424352367</v>
+        <v>-0.04295452424352354</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1322450957804767</v>
+        <v>-0.1349061318871707</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.05738172137790078</v>
+        <v>-0.05512416101682936</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.07677402145649517</v>
+        <v>-0.07713363842576879</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.02096451234555663</v>
+        <v>-0.01357965052050627</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.0333078664641387</v>
+        <v>0.03519513176073687</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.004493510887456406</v>
+        <v>-0.004116779926359267</v>
       </c>
     </row>
     <row r="22">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>-0.8259495403606265</v>
+        <v>-0.8259495403606487</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2949225771825215</v>
+        <v>0.2949225771825326</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.2251790247405294</v>
+        <v>-0.2251790247405405</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.730029045560101</v>
+        <v>-4.592928908534378</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.586170673128348</v>
+        <v>-2.323619237992565</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.572377098756328</v>
+        <v>-2.758993800253297</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.883578863865998</v>
+        <v>3.051154878648017</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.253076260337084</v>
+        <v>3.62062599225696</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.10033756673824</v>
+        <v>1.909883699931312</v>
       </c>
     </row>
     <row r="25">
@@ -933,13 +933,13 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>-0.009468051957211966</v>
+        <v>-0.009468051957212221</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.003265425154497</v>
+        <v>0.003265425154497122</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.002536164936677027</v>
+        <v>-0.002536164936677152</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.05284075719078461</v>
+        <v>-0.05212445568819008</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.02803368377445963</v>
+        <v>-0.02514366550723681</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.02845436887356856</v>
+        <v>-0.03081213278356853</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.03411224998117094</v>
+        <v>0.03594143259782017</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.03724295297293152</v>
+        <v>0.04137585333457918</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.02389554294944169</v>
+        <v>0.02174109388487752</v>
       </c>
     </row>
     <row r="28">
@@ -988,13 +988,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>-1.294254845936693</v>
+        <v>-1.294254845936671</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0.9717529429163374</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-0.1699225022771866</v>
+        <v>-0.1699225022772088</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.745491575927756</v>
+        <v>-4.702300398817151</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.7678831756925</v>
+        <v>-1.613865224781825</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.562018689200579</v>
+        <v>-2.217911350215379</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.104858237793204</v>
+        <v>2.037651033413244</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.190627687702919</v>
+        <v>3.837978707280039</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.070412348872633</v>
+        <v>2.070508951243969</v>
       </c>
     </row>
     <row r="31">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>-0.01403643385368132</v>
+        <v>-0.01403643385368108</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>0.01043895587384867</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.001833907343825311</v>
+        <v>-0.001833907343825551</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.05066334488319112</v>
+        <v>-0.04992935827609056</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.0185417633229807</v>
+        <v>-0.01716010410051842</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.02724305690748209</v>
+        <v>-0.02350641830004769</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.02348947661799945</v>
+        <v>0.0226659738940608</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.04616813498782978</v>
+        <v>0.04242758840564361</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.02265921912898138</v>
+        <v>0.02277723920553281</v>
       </c>
     </row>
     <row r="34">
@@ -1097,10 +1097,10 @@
         <v>-2.189437438973374</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>-1.017008813109943</v>
+        <v>-1.017008813109954</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-1.591070852585508</v>
+        <v>-1.591070852585497</v>
       </c>
     </row>
     <row r="35">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-4.756997912888869</v>
+        <v>-4.833533305693535</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.829875890508316</v>
+        <v>-2.761138983838253</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.316469071035868</v>
+        <v>-3.210654904054591</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.4207420348944085</v>
+        <v>0.398071324287297</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.9559595388837099</v>
+        <v>1.136218330336384</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-0.0467860242608973</v>
+        <v>0.01749018482824929</v>
       </c>
     </row>
     <row r="37">
@@ -1148,10 +1148,10 @@
         <v>-0.02257716330928163</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>-0.01039366207685183</v>
+        <v>-0.01039366207685194</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.01632889552121821</v>
+        <v>-0.0163288955212181</v>
       </c>
     </row>
     <row r="38">
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.04814216721268327</v>
+        <v>-0.0489913933208975</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.02863719360567716</v>
+        <v>-0.02798525990892662</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.03371876859402851</v>
+        <v>-0.03270711778521674</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.004158043511775685</v>
+        <v>0.004177312245208268</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.009928688668480033</v>
+        <v>0.01168063370022457</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.0004666862197641218</v>
+        <v>0.0001780121008654428</v>
       </c>
     </row>
     <row r="40">
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.40320953066171</v>
+        <v>-1.534118126274375</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.760824945604566</v>
+        <v>-3.783447129599399</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.366673399990951</v>
+        <v>-2.34436163877236</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.152775686719461</v>
+        <v>3.076625175645253</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.6917188749544886</v>
+        <v>0.7996589073491026</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.8070196531432897</v>
+        <v>0.8617841983548242</v>
       </c>
     </row>
     <row r="43">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.01422060644732405</v>
+        <v>-0.01555558065033027</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.03778308489280692</v>
+        <v>-0.03808337753124333</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.02403543064367585</v>
+        <v>-0.02372594299739541</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.03305871961880543</v>
+        <v>0.03214267341239621</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.006994176599728548</v>
+        <v>0.008052288393506139</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.008332533068641379</v>
+        <v>0.008947788967976903</v>
       </c>
     </row>
     <row r="46">
@@ -1306,13 +1306,13 @@
         </is>
       </c>
       <c r="C46" s="5" t="n">
-        <v>-2.116196979239038</v>
+        <v>-2.116196979239027</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>-0.8967093798367687</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-1.484551447243343</v>
+        <v>-1.484551447243365</v>
       </c>
     </row>
     <row r="47">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-4.210833641588012</v>
+        <v>-4.517886113691545</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-2.575292772426326</v>
+        <v>-2.499303461655119</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-2.759870577300935</v>
+        <v>-2.919768296169158</v>
       </c>
     </row>
     <row r="48">
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.1090525852571374</v>
+        <v>-0.0447137037762218</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.7560010958341993</v>
+        <v>0.8000754812533644</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-0.1416617705403342</v>
+        <v>-0.2254606517749004</v>
       </c>
     </row>
     <row r="49">
@@ -1357,13 +1357,13 @@
         </is>
       </c>
       <c r="C49" s="6" t="n">
-        <v>-0.02597390534370699</v>
+        <v>-0.02597390534370686</v>
       </c>
       <c r="D49" s="6" t="n">
         <v>-0.01025506967614189</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.01756225061427376</v>
+        <v>-0.01756225061427402</v>
       </c>
     </row>
     <row r="50">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.05165007682720354</v>
+        <v>-0.05492924725850769</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.0291868098419112</v>
+        <v>-0.02846674529130425</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.03248402440512212</v>
+        <v>-0.03446581557629871</v>
       </c>
     </row>
     <row r="51">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.001340322802899522</v>
+        <v>-0.0005848553704771602</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.008689793099489102</v>
+        <v>0.009339266279602767</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.001669787712734167</v>
+        <v>-0.00268677275885035</v>
       </c>
     </row>
     <row r="52">
